--- a/grupos/3BEM - Estadisticos 20211.xlsx
+++ b/grupos/3BEM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="144">
   <si>
     <t>Materia</t>
   </si>
@@ -179,19 +179,19 @@
     <t>Rodríguez Román Leticia</t>
   </si>
   <si>
+    <t>Avila Coronado Julieta</t>
+  </si>
+  <si>
     <t>Molina Quezada Raúl</t>
   </si>
   <si>
     <t>Camarillo Aburto Raymundo</t>
   </si>
   <si>
+    <t>Aurioles Maldonado Luis Gustavo</t>
+  </si>
+  <si>
     <t>Cruz Alejo José Armando</t>
-  </si>
-  <si>
-    <t>Avila Coronado Julieta</t>
-  </si>
-  <si>
-    <t>Aurioles Maldonado Luis Gustavo</t>
   </si>
   <si>
     <t>NC</t>
@@ -938,22 +938,22 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>9</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H4">
         <v>-1</v>
@@ -992,22 +992,22 @@
         <v>-1</v>
       </c>
       <c r="T4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V4">
         <v>9</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X4">
         <v>10</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -1024,13 +1024,13 @@
         <v>-1</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F5">
         <v>9</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H5">
         <v>-1</v>
@@ -1078,13 +1078,13 @@
         <v>-1</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X5">
         <v>9</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -1095,19 +1095,19 @@
         <v>-1</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>-1</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>9</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H6">
         <v>-1</v>
@@ -1149,19 +1149,19 @@
         <v>-1</v>
       </c>
       <c r="U6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V6">
         <v>-1</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X6">
         <v>9</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -1169,7 +1169,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>-1</v>
@@ -1178,7 +1178,7 @@
         <v>7</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -1223,7 +1223,7 @@
         <v>-1</v>
       </c>
       <c r="T7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U7">
         <v>-1</v>
@@ -1232,7 +1232,7 @@
         <v>7</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X7">
         <v>10</v>
@@ -1246,7 +1246,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>-1</v>
@@ -1255,13 +1255,13 @@
         <v>9</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <v>10</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H8">
         <v>-1</v>
@@ -1300,7 +1300,7 @@
         <v>-1</v>
       </c>
       <c r="T8">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U8">
         <v>-1</v>
@@ -1309,13 +1309,13 @@
         <v>9</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X8">
         <v>10</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1323,7 +1323,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>-1</v>
@@ -1332,13 +1332,13 @@
         <v>9</v>
       </c>
       <c r="E9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F9">
         <v>10</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H9">
         <v>-1</v>
@@ -1377,7 +1377,7 @@
         <v>-1</v>
       </c>
       <c r="T9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U9">
         <v>-1</v>
@@ -1386,13 +1386,13 @@
         <v>9</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X9">
         <v>10</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1400,22 +1400,22 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F10">
         <v>10</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H10">
         <v>-1</v>
@@ -1454,22 +1454,22 @@
         <v>-1</v>
       </c>
       <c r="T10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V10">
         <v>10</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X10">
         <v>10</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1477,22 +1477,22 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
       <c r="G11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>-1</v>
@@ -1531,22 +1531,22 @@
         <v>-1</v>
       </c>
       <c r="T11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V11">
         <v>10</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X11">
         <v>10</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1554,7 +1554,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>-1</v>
@@ -1563,13 +1563,13 @@
         <v>9</v>
       </c>
       <c r="E12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
       <c r="G12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H12">
         <v>-1</v>
@@ -1608,7 +1608,7 @@
         <v>-1</v>
       </c>
       <c r="T12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U12">
         <v>-1</v>
@@ -1617,13 +1617,13 @@
         <v>9</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X12">
         <v>10</v>
       </c>
       <c r="Y12">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1939,22 +1939,22 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>-1</v>
       </c>
       <c r="E17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F17">
         <v>10</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H17">
         <v>-1</v>
@@ -1993,22 +1993,22 @@
         <v>-1</v>
       </c>
       <c r="T17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U17">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V17">
         <v>-1</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X17">
         <v>10</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -2016,22 +2016,22 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D18">
         <v>9</v>
       </c>
       <c r="E18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F18">
         <v>10</v>
       </c>
       <c r="G18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H18">
         <v>-1</v>
@@ -2070,22 +2070,22 @@
         <v>-1</v>
       </c>
       <c r="T18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V18">
         <v>9</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X18">
         <v>10</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -2102,7 +2102,7 @@
         <v>-1</v>
       </c>
       <c r="E19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F19">
         <v>-1</v>
@@ -2156,7 +2156,7 @@
         <v>-1</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2170,22 +2170,22 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="D20">
         <v>9</v>
       </c>
       <c r="E20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F20">
         <v>10</v>
       </c>
       <c r="G20">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H20">
         <v>-1</v>
@@ -2224,22 +2224,22 @@
         <v>-1</v>
       </c>
       <c r="T20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="V20">
         <v>9</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X20">
         <v>10</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2247,22 +2247,22 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D21">
         <v>10</v>
       </c>
       <c r="E21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F21">
         <v>10</v>
       </c>
       <c r="G21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H21">
         <v>-1</v>
@@ -2301,22 +2301,22 @@
         <v>-1</v>
       </c>
       <c r="T21">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V21">
         <v>10</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X21">
         <v>10</v>
       </c>
       <c r="Y21">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2324,22 +2324,22 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D22">
         <v>10</v>
       </c>
       <c r="E22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F22">
         <v>10</v>
       </c>
       <c r="G22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H22">
         <v>-1</v>
@@ -2378,22 +2378,22 @@
         <v>-1</v>
       </c>
       <c r="T22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U22">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V22">
         <v>10</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X22">
         <v>10</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2555,7 +2555,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>-1</v>
@@ -2564,7 +2564,7 @@
         <v>-1</v>
       </c>
       <c r="E25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F25">
         <v>-1</v>
@@ -2609,7 +2609,7 @@
         <v>-1</v>
       </c>
       <c r="T25">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U25">
         <v>-1</v>
@@ -2618,7 +2618,7 @@
         <v>-1</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X25">
         <v>-1</v>
@@ -2632,22 +2632,22 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D26">
         <v>10</v>
       </c>
       <c r="E26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F26">
         <v>8</v>
       </c>
       <c r="G26">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H26">
         <v>-1</v>
@@ -2686,22 +2686,22 @@
         <v>-1</v>
       </c>
       <c r="T26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V26">
         <v>10</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X26">
         <v>8</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -2709,7 +2709,7 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C27">
         <v>-1</v>
@@ -2718,13 +2718,13 @@
         <v>9</v>
       </c>
       <c r="E27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F27">
         <v>10</v>
       </c>
       <c r="G27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H27">
         <v>-1</v>
@@ -2763,7 +2763,7 @@
         <v>-1</v>
       </c>
       <c r="T27">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U27">
         <v>-1</v>
@@ -2772,13 +2772,13 @@
         <v>9</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X27">
         <v>10</v>
       </c>
       <c r="Y27">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -2786,22 +2786,22 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D28">
         <v>10</v>
       </c>
       <c r="E28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F28">
         <v>10</v>
       </c>
       <c r="G28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H28">
         <v>-1</v>
@@ -2840,22 +2840,22 @@
         <v>-1</v>
       </c>
       <c r="T28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U28">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V28">
         <v>10</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X28">
         <v>10</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -2863,7 +2863,7 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C29">
         <v>-1</v>
@@ -2872,13 +2872,13 @@
         <v>9</v>
       </c>
       <c r="E29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F29">
         <v>10</v>
       </c>
       <c r="G29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H29">
         <v>-1</v>
@@ -2917,7 +2917,7 @@
         <v>-1</v>
       </c>
       <c r="T29">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U29">
         <v>-1</v>
@@ -2926,13 +2926,13 @@
         <v>9</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X29">
         <v>10</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -2949,7 +2949,7 @@
         <v>-1</v>
       </c>
       <c r="E30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F30">
         <v>-1</v>
@@ -3003,7 +3003,7 @@
         <v>-1</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3017,7 +3017,7 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C31">
         <v>-1</v>
@@ -3026,13 +3026,13 @@
         <v>-1</v>
       </c>
       <c r="E31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F31">
         <v>-1</v>
       </c>
       <c r="G31">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H31">
         <v>-1</v>
@@ -3071,7 +3071,7 @@
         <v>-1</v>
       </c>
       <c r="T31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U31">
         <v>-1</v>
@@ -3080,13 +3080,13 @@
         <v>-1</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -3094,7 +3094,7 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C32">
         <v>-1</v>
@@ -3103,13 +3103,13 @@
         <v>8</v>
       </c>
       <c r="E32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="F32">
         <v>9</v>
       </c>
       <c r="G32">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H32">
         <v>-1</v>
@@ -3148,7 +3148,7 @@
         <v>-1</v>
       </c>
       <c r="T32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U32">
         <v>-1</v>
@@ -3157,13 +3157,13 @@
         <v>8</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="X32">
         <v>9</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -3171,22 +3171,22 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D33">
         <v>8</v>
       </c>
       <c r="E33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F33">
         <v>-1</v>
       </c>
       <c r="G33">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="H33">
         <v>-1</v>
@@ -3225,22 +3225,22 @@
         <v>-1</v>
       </c>
       <c r="T33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U33">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V33">
         <v>8</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:25">
@@ -3248,16 +3248,16 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="D34">
         <v>10</v>
       </c>
       <c r="E34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F34">
         <v>8</v>
@@ -3302,16 +3302,16 @@
         <v>-1</v>
       </c>
       <c r="T34">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="V34">
         <v>10</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X34">
         <v>8</v>
@@ -3385,27 +3385,30 @@
         <v>32</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>40.63</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>7.2</v>
+      </c>
       <c r="I2">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>59.38</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
@@ -3414,27 +3417,30 @@
         <v>32</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>59.38</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>9</v>
+      </c>
       <c r="I3">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>40.63</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
@@ -3443,27 +3449,30 @@
         <v>32</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
       <c r="I4">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -3472,27 +3481,30 @@
         <v>32</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>65.63</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="H5">
+        <v>7.8</v>
+      </c>
       <c r="I5">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>34.38</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
@@ -3501,30 +3513,30 @@
         <v>32</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>59.38</v>
+        <v>75</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I6">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J6">
-        <v>40.63</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
@@ -3533,25 +3545,25 @@
         <v>32</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>75</v>
+        <v>78.13</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9.699999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J7">
-        <v>25</v>
+        <v>21.88</v>
       </c>
     </row>
   </sheetData>
@@ -3628,7 +3640,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3648,7 +3660,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3668,7 +3680,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3688,7 +3700,7 @@
         <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3708,7 +3720,7 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3748,7 +3760,7 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3768,7 +3780,7 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3788,7 +3800,7 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3808,7 +3820,7 @@
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3828,7 +3840,7 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3868,7 +3880,7 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3888,7 +3900,7 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3908,7 +3920,7 @@
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3928,7 +3940,7 @@
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3948,7 +3960,7 @@
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3988,7 +4000,7 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4008,7 +4020,7 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4028,7 +4040,7 @@
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4048,7 +4060,7 @@
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4068,7 +4080,7 @@
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4108,7 +4120,7 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4128,7 +4140,7 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4148,7 +4160,7 @@
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4168,7 +4180,7 @@
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4188,7 +4200,7 @@
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4228,7 +4240,7 @@
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4248,7 +4260,7 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4268,7 +4280,7 @@
         <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4288,7 +4300,7 @@
         <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4308,7 +4320,7 @@
         <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4348,7 +4360,7 @@
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4368,7 +4380,7 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4388,7 +4400,7 @@
         <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4408,7 +4420,7 @@
         <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4428,7 +4440,7 @@
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4468,7 +4480,7 @@
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4488,7 +4500,7 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4508,7 +4520,7 @@
         <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4528,7 +4540,7 @@
         <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4548,7 +4560,7 @@
         <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4588,7 +4600,7 @@
         <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4608,7 +4620,7 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4628,7 +4640,7 @@
         <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4648,7 +4660,7 @@
         <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4668,7 +4680,7 @@
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4708,7 +4720,7 @@
         <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4728,7 +4740,7 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4748,7 +4760,7 @@
         <v>5</v>
       </c>
       <c r="F59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4768,7 +4780,7 @@
         <v>8</v>
       </c>
       <c r="F60" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4788,7 +4800,7 @@
         <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4828,7 +4840,7 @@
         <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4848,7 +4860,7 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4868,7 +4880,7 @@
         <v>5</v>
       </c>
       <c r="F65" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4888,7 +4900,7 @@
         <v>8</v>
       </c>
       <c r="F66" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4908,7 +4920,7 @@
         <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4948,7 +4960,7 @@
         <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4968,7 +4980,7 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4988,7 +5000,7 @@
         <v>5</v>
       </c>
       <c r="F71" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5008,7 +5020,7 @@
         <v>8</v>
       </c>
       <c r="F72" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5028,7 +5040,7 @@
         <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5068,7 +5080,7 @@
         <v>7</v>
       </c>
       <c r="F75" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5088,7 +5100,7 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5108,7 +5120,7 @@
         <v>5</v>
       </c>
       <c r="F77" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5128,7 +5140,7 @@
         <v>8</v>
       </c>
       <c r="F78" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5148,7 +5160,7 @@
         <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -5188,7 +5200,7 @@
         <v>7</v>
       </c>
       <c r="F81" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5208,7 +5220,7 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5228,7 +5240,7 @@
         <v>5</v>
       </c>
       <c r="F83" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5248,7 +5260,7 @@
         <v>8</v>
       </c>
       <c r="F84" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5268,7 +5280,7 @@
         <v>9</v>
       </c>
       <c r="F85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5308,7 +5320,7 @@
         <v>7</v>
       </c>
       <c r="F87" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5328,7 +5340,7 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5348,7 +5360,7 @@
         <v>5</v>
       </c>
       <c r="F89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5368,7 +5380,7 @@
         <v>8</v>
       </c>
       <c r="F90" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5388,7 +5400,7 @@
         <v>9</v>
       </c>
       <c r="F91" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5428,7 +5440,7 @@
         <v>7</v>
       </c>
       <c r="F93" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5448,7 +5460,7 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5468,7 +5480,7 @@
         <v>5</v>
       </c>
       <c r="F95" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5488,7 +5500,7 @@
         <v>8</v>
       </c>
       <c r="F96" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5508,7 +5520,7 @@
         <v>9</v>
       </c>
       <c r="F97" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5548,7 +5560,7 @@
         <v>7</v>
       </c>
       <c r="F99" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5568,7 +5580,7 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5588,7 +5600,7 @@
         <v>5</v>
       </c>
       <c r="F101" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -5608,7 +5620,7 @@
         <v>8</v>
       </c>
       <c r="F102" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -5628,7 +5640,7 @@
         <v>9</v>
       </c>
       <c r="F103" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -5668,7 +5680,7 @@
         <v>7</v>
       </c>
       <c r="F105" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -5688,7 +5700,7 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -5708,7 +5720,7 @@
         <v>5</v>
       </c>
       <c r="F107" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -5728,7 +5740,7 @@
         <v>8</v>
       </c>
       <c r="F108" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -5748,7 +5760,7 @@
         <v>9</v>
       </c>
       <c r="F109" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -5788,7 +5800,7 @@
         <v>7</v>
       </c>
       <c r="F111" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -5808,7 +5820,7 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -5828,7 +5840,7 @@
         <v>5</v>
       </c>
       <c r="F113" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -5848,7 +5860,7 @@
         <v>8</v>
       </c>
       <c r="F114" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -5868,7 +5880,7 @@
         <v>9</v>
       </c>
       <c r="F115" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -5902,7 +5914,7 @@
         <v>7</v>
       </c>
       <c r="F117" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -5919,7 +5931,7 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -5936,7 +5948,7 @@
         <v>5</v>
       </c>
       <c r="F119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -5953,7 +5965,7 @@
         <v>8</v>
       </c>
       <c r="F120" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -5970,7 +5982,7 @@
         <v>9</v>
       </c>
       <c r="F121" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -6010,7 +6022,7 @@
         <v>7</v>
       </c>
       <c r="F123" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -6030,7 +6042,7 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -6050,7 +6062,7 @@
         <v>5</v>
       </c>
       <c r="F125" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -6070,7 +6082,7 @@
         <v>8</v>
       </c>
       <c r="F126" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -6090,7 +6102,7 @@
         <v>9</v>
       </c>
       <c r="F127" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -6130,7 +6142,7 @@
         <v>7</v>
       </c>
       <c r="F129" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -6150,7 +6162,7 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -6170,7 +6182,7 @@
         <v>5</v>
       </c>
       <c r="F131" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -6190,7 +6202,7 @@
         <v>8</v>
       </c>
       <c r="F132" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -6210,7 +6222,7 @@
         <v>9</v>
       </c>
       <c r="F133" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -6250,7 +6262,7 @@
         <v>7</v>
       </c>
       <c r="F135" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -6270,7 +6282,7 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -6290,7 +6302,7 @@
         <v>5</v>
       </c>
       <c r="F137" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -6310,7 +6322,7 @@
         <v>8</v>
       </c>
       <c r="F138" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -6330,7 +6342,7 @@
         <v>9</v>
       </c>
       <c r="F139" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -6370,7 +6382,7 @@
         <v>7</v>
       </c>
       <c r="F141" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -6390,7 +6402,7 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -6410,7 +6422,7 @@
         <v>5</v>
       </c>
       <c r="F143" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -6430,7 +6442,7 @@
         <v>8</v>
       </c>
       <c r="F144" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -6450,7 +6462,7 @@
         <v>9</v>
       </c>
       <c r="F145" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -6490,7 +6502,7 @@
         <v>7</v>
       </c>
       <c r="F147" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -6510,7 +6522,7 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -6530,7 +6542,7 @@
         <v>5</v>
       </c>
       <c r="F149" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -6550,7 +6562,7 @@
         <v>8</v>
       </c>
       <c r="F150" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -6570,7 +6582,7 @@
         <v>9</v>
       </c>
       <c r="F151" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -6610,7 +6622,7 @@
         <v>7</v>
       </c>
       <c r="F153" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -6630,7 +6642,7 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -6650,7 +6662,7 @@
         <v>5</v>
       </c>
       <c r="F155" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -6670,7 +6682,7 @@
         <v>8</v>
       </c>
       <c r="F156" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -6690,7 +6702,7 @@
         <v>9</v>
       </c>
       <c r="F157" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -6730,7 +6742,7 @@
         <v>7</v>
       </c>
       <c r="F159" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -6750,7 +6762,7 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -6770,7 +6782,7 @@
         <v>5</v>
       </c>
       <c r="F161" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -6790,7 +6802,7 @@
         <v>8</v>
       </c>
       <c r="F162" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -6810,7 +6822,7 @@
         <v>9</v>
       </c>
       <c r="F163" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -6850,7 +6862,7 @@
         <v>7</v>
       </c>
       <c r="F165" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -6870,7 +6882,7 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -6890,7 +6902,7 @@
         <v>5</v>
       </c>
       <c r="F167" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -6910,7 +6922,7 @@
         <v>8</v>
       </c>
       <c r="F168" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -6930,7 +6942,7 @@
         <v>9</v>
       </c>
       <c r="F169" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -6970,7 +6982,7 @@
         <v>7</v>
       </c>
       <c r="F171" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -6990,7 +7002,7 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -7010,7 +7022,7 @@
         <v>5</v>
       </c>
       <c r="F173" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -7030,7 +7042,7 @@
         <v>8</v>
       </c>
       <c r="F174" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -7050,7 +7062,7 @@
         <v>9</v>
       </c>
       <c r="F175" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -7090,7 +7102,7 @@
         <v>7</v>
       </c>
       <c r="F177" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -7110,7 +7122,7 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -7130,7 +7142,7 @@
         <v>5</v>
       </c>
       <c r="F179" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -7150,7 +7162,7 @@
         <v>8</v>
       </c>
       <c r="F180" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -7170,7 +7182,7 @@
         <v>9</v>
       </c>
       <c r="F181" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -7210,7 +7222,7 @@
         <v>7</v>
       </c>
       <c r="F183" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -7230,7 +7242,7 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -7250,7 +7262,7 @@
         <v>5</v>
       </c>
       <c r="F185" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -7270,7 +7282,7 @@
         <v>8</v>
       </c>
       <c r="F186" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -7290,7 +7302,7 @@
         <v>9</v>
       </c>
       <c r="F187" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -7330,7 +7342,7 @@
         <v>7</v>
       </c>
       <c r="F189" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -7350,7 +7362,7 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -7370,7 +7382,7 @@
         <v>5</v>
       </c>
       <c r="F191" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -7390,7 +7402,7 @@
         <v>8</v>
       </c>
       <c r="F192" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -7410,7 +7422,7 @@
         <v>9</v>
       </c>
       <c r="F193" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -7995,7 +8007,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8028,6 +8040,305 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>20330051920040</v>
+      </c>
+      <c r="B2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>20330051920040</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>20330051920042</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>20330051920042</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>20330051920044</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>20330051920046</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>20330051920051</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>20330051920053</v>
+      </c>
+      <c r="B9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>20330051920101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>20330051920105</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>20330051920111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>20330051920112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>20330051920113</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/3BEM - Estadisticos 20211.xlsx
+++ b/grupos/3BEM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1215" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="144">
   <si>
     <t>Materia</t>
   </si>
@@ -215,120 +215,204 @@
     <t>ANASTACIO</t>
   </si>
   <si>
+    <t>BERNARDO</t>
+  </si>
+  <si>
+    <t>CID</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>MENDIZABAL</t>
+  </si>
+  <si>
+    <t>NAJERA</t>
+  </si>
+  <si>
+    <t>NUBE</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>TELLEZ</t>
+  </si>
+  <si>
+    <t>VALENTE</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>CONCHE</t>
+  </si>
+  <si>
+    <t>PORRAS</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>CONCHOA</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>MARROQUIN</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>SEGURA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>EVARISTO</t>
+  </si>
+  <si>
+    <t>ALEMAN</t>
+  </si>
+  <si>
+    <t>ROSETE</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>GAMEZ</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>FRANCISCO ALAN</t>
+  </si>
+  <si>
+    <t>HIRAM FABIAN</t>
+  </si>
+  <si>
+    <t>URIEL</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>YAHIR</t>
+  </si>
+  <si>
+    <t>BRUNO AZAEL</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>MARIA ASUNCION</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO</t>
+  </si>
+  <si>
+    <t>ALDAIR ALAN</t>
+  </si>
+  <si>
+    <t>ALDER ALBERTO</t>
+  </si>
+  <si>
+    <t>ELI ANTONIO</t>
+  </si>
+  <si>
+    <t>ISAAC</t>
+  </si>
+  <si>
+    <t>CHRISTIAN YAIR</t>
+  </si>
+  <si>
+    <t>SERGIO MARIANO</t>
+  </si>
+  <si>
+    <t>CESAR OMAR</t>
+  </si>
+  <si>
+    <t>ROSA ISELA</t>
+  </si>
+  <si>
+    <t>BENY ALEXANDER</t>
+  </si>
+  <si>
+    <t>ABIUD</t>
+  </si>
+  <si>
+    <t>GUILLERMO</t>
+  </si>
+  <si>
+    <t>ALEXANDER</t>
+  </si>
+  <si>
     <t>AGUILAR</t>
   </si>
   <si>
-    <t>BERNARDO</t>
-  </si>
-  <si>
     <t>CITALAN</t>
   </si>
   <si>
-    <t>CID</t>
-  </si>
-  <si>
     <t>COLOHUA</t>
   </si>
   <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
     <t>GOMEZ</t>
   </si>
   <si>
     <t>GUEVARA</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>MENDIZABAL</t>
-  </si>
-  <si>
-    <t>NAJERA</t>
-  </si>
-  <si>
-    <t>NUBE</t>
-  </si>
-  <si>
-    <t>ORTIZ</t>
-  </si>
-  <si>
     <t>OLMOS</t>
   </si>
   <si>
     <t>RAMIREZ</t>
   </si>
   <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>TELLEZ</t>
-  </si>
-  <si>
-    <t>VALENTE</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>CONCHE</t>
-  </si>
-  <si>
-    <t>PORRAS</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
     <t>GARCÍA</t>
   </si>
   <si>
-    <t>CONCHOA</t>
-  </si>
-  <si>
     <t>ROMANOS</t>
   </si>
   <si>
-    <t>VALENCIA</t>
-  </si>
-  <si>
-    <t>MARROQUIN</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>SEGURA</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
     <t>HERRERA</t>
   </si>
   <si>
@@ -338,66 +422,18 @@
     <t>MARCELINO</t>
   </si>
   <si>
-    <t>EVARISTO</t>
-  </si>
-  <si>
-    <t>ALEMAN</t>
-  </si>
-  <si>
-    <t>ROSETE</t>
-  </si>
-  <si>
     <t>ROBLES</t>
   </si>
   <si>
-    <t>GAMEZ</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>FRANCISCO ALAN</t>
-  </si>
-  <si>
-    <t>HIRAM FABIAN</t>
-  </si>
-  <si>
     <t>RAUL</t>
   </si>
   <si>
-    <t>URIEL</t>
-  </si>
-  <si>
     <t>MISAEL</t>
   </si>
   <si>
-    <t>JESUS</t>
-  </si>
-  <si>
     <t>DAVID</t>
   </si>
   <si>
-    <t>YAHIR</t>
-  </si>
-  <si>
-    <t>BRUNO AZAEL</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>MARIA ASUNCION</t>
-  </si>
-  <si>
-    <t>MARCO ANTONIO</t>
-  </si>
-  <si>
     <t>ROBERTO</t>
   </si>
   <si>
@@ -410,46 +446,10 @@
     <t>ADRIAN</t>
   </si>
   <si>
-    <t>ALDAIR ALAN</t>
-  </si>
-  <si>
-    <t>ALDER ALBERTO</t>
-  </si>
-  <si>
-    <t>ELI ANTONIO</t>
-  </si>
-  <si>
-    <t>ISAAC</t>
-  </si>
-  <si>
-    <t>CHRISTIAN YAIR</t>
-  </si>
-  <si>
-    <t>SERGIO MARIANO</t>
-  </si>
-  <si>
     <t>IVAN</t>
   </si>
   <si>
     <t>JUAN CARLOS</t>
-  </si>
-  <si>
-    <t>CESAR OMAR</t>
-  </si>
-  <si>
-    <t>ROSA ISELA</t>
-  </si>
-  <si>
-    <t>BENY ALEXANDER</t>
-  </si>
-  <si>
-    <t>ABIUD</t>
-  </si>
-  <si>
-    <t>GUILLERMO</t>
-  </si>
-  <si>
-    <t>ALEXANDER</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1015,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>-1</v>
@@ -1069,7 +1069,7 @@
         <v>-1</v>
       </c>
       <c r="T5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U5">
         <v>-1</v>
@@ -1092,7 +1092,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -1146,7 +1146,7 @@
         <v>-1</v>
       </c>
       <c r="T6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U6">
         <v>6</v>
@@ -1631,7 +1631,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>-1</v>
@@ -1685,7 +1685,7 @@
         <v>-1</v>
       </c>
       <c r="T13">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U13">
         <v>-1</v>
@@ -1708,7 +1708,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>-1</v>
@@ -1762,7 +1762,7 @@
         <v>-1</v>
       </c>
       <c r="T14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U14">
         <v>-1</v>
@@ -1785,7 +1785,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>-1</v>
@@ -1839,7 +1839,7 @@
         <v>-1</v>
       </c>
       <c r="T15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U15">
         <v>-1</v>
@@ -1862,7 +1862,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>-1</v>
@@ -1916,7 +1916,7 @@
         <v>-1</v>
       </c>
       <c r="T16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U16">
         <v>-1</v>
@@ -2093,7 +2093,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>-1</v>
@@ -2147,7 +2147,7 @@
         <v>-1</v>
       </c>
       <c r="T19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U19">
         <v>-1</v>
@@ -2401,7 +2401,7 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C23">
         <v>-1</v>
@@ -2455,7 +2455,7 @@
         <v>-1</v>
       </c>
       <c r="T23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U23">
         <v>-1</v>
@@ -2478,7 +2478,7 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C24">
         <v>-1</v>
@@ -2532,7 +2532,7 @@
         <v>-1</v>
       </c>
       <c r="T24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U24">
         <v>-1</v>
@@ -2940,7 +2940,7 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C30">
         <v>-1</v>
@@ -2952,7 +2952,7 @@
         <v>8</v>
       </c>
       <c r="F30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="G30">
         <v>-1</v>
@@ -2994,7 +2994,7 @@
         <v>-1</v>
       </c>
       <c r="T30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="U30">
         <v>-1</v>
@@ -3006,7 +3006,7 @@
         <v>8</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y30">
         <v>-1</v>
@@ -3481,25 +3481,25 @@
         <v>32</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>68.75</v>
+      </c>
+      <c r="G5">
+        <v>31.25</v>
+      </c>
+      <c r="H5">
+        <v>6.8</v>
+      </c>
+      <c r="I5">
         <v>0</v>
       </c>
-      <c r="F5">
-        <v>65.63</v>
-      </c>
-      <c r="G5">
+      <c r="J5">
         <v>0</v>
-      </c>
-      <c r="H5">
-        <v>7.8</v>
-      </c>
-      <c r="I5">
-        <v>11</v>
-      </c>
-      <c r="J5">
-        <v>34.38</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3513,25 +3513,25 @@
         <v>32</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>75</v>
+        <v>78.13</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="I6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6">
-        <v>25</v>
+        <v>21.88</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3545,13 +3545,13 @@
         <v>32</v>
       </c>
       <c r="D7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>78.13</v>
+        <v>81.25</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -3560,10 +3560,10 @@
         <v>8.199999999999999</v>
       </c>
       <c r="I7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J7">
-        <v>21.88</v>
+        <v>18.75</v>
       </c>
     </row>
   </sheetData>
@@ -3573,7 +3573,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F193"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3611,10 +3611,10 @@
         <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -3631,10 +3631,10 @@
         <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -3645,96 +3645,96 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>20330051920039</v>
+        <v>20330051920040</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>20330051920039</v>
+        <v>20330051920042</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>20330051920039</v>
+        <v>20330051920042</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920039</v>
+        <v>20330051920044</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920040</v>
+        <v>20330051920046</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -3745,76 +3745,76 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>20330051920040</v>
+        <v>20330051920050</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>20330051920040</v>
+        <v>20330051920050</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>20330051920040</v>
+        <v>20330051920050</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C11" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920040</v>
+        <v>20330051920050</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
@@ -3825,36 +3825,36 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920040</v>
+        <v>20330051920051</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>20330051920042</v>
+        <v>20330051920365</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
@@ -3865,16 +3865,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>20330051920042</v>
+        <v>20330051920365</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -3885,16 +3885,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920042</v>
+        <v>20330051920365</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -3905,276 +3905,276 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920042</v>
+        <v>20330051920365</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>20330051920042</v>
+        <v>20330051920052</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>20330051920042</v>
+        <v>20330051920052</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920043</v>
+        <v>20330051920052</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920043</v>
+        <v>20330051920052</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920043</v>
+        <v>20330051920053</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>20330051920043</v>
+        <v>20330051920055</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>20330051920043</v>
+        <v>20330051920055</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920043</v>
+        <v>20330051920055</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="D25" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920044</v>
+        <v>20330051920055</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>20330051920044</v>
+        <v>20330051920097</v>
       </c>
       <c r="B27" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>20330051920044</v>
+        <v>20330051920097</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920044</v>
+        <v>20330051920097</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920044</v>
+        <v>20330051920097</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
@@ -4185,236 +4185,227 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>20330051920044</v>
+        <v>20330051920099</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920045</v>
+        <v>20330051920099</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="D32" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920045</v>
+        <v>20330051920099</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="D33" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>20330051920045</v>
+        <v>20330051920366</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D34" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>20330051920045</v>
+        <v>20330051920366</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D35" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>20330051920045</v>
+        <v>20330051920366</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920045</v>
+        <v>20330051920366</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="D37" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20330051920046</v>
+        <v>20330051920366</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D38" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>20330051920046</v>
+        <v>20330051920367</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D39" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>20330051920046</v>
+        <v>20330051920367</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D40" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>20330051920046</v>
+        <v>20330051920367</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E41" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>20330051920046</v>
+        <v>20330051920367</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D42" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
@@ -4425,16 +4416,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>20330051920046</v>
+        <v>20330051920367</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="D43" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E43" t="s">
         <v>9</v>
@@ -4445,16 +4436,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>20330051920048</v>
+        <v>20330051920100</v>
       </c>
       <c r="B44" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D44" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E44" t="s">
         <v>6</v>
@@ -4465,16 +4456,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>20330051920048</v>
+        <v>20330051920100</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D45" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
         <v>7</v>
@@ -4485,16 +4476,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>20330051920048</v>
+        <v>20330051920100</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C46" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D46" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E46" t="s">
         <v>10</v>
@@ -4505,76 +4496,76 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>20330051920048</v>
+        <v>20330051920100</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C47" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D47" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E47" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>20330051920048</v>
+        <v>20330051920101</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C48" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="D48" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>20330051920048</v>
+        <v>20330051920105</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C49" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="D49" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F49" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>20330051920050</v>
+        <v>20330051920107</v>
       </c>
       <c r="B50" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C50" t="s">
         <v>79</v>
       </c>
       <c r="D50" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E50" t="s">
         <v>6</v>
@@ -4585,16 +4576,16 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>20330051920050</v>
+        <v>20330051920107</v>
       </c>
       <c r="B51" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C51" t="s">
         <v>79</v>
       </c>
       <c r="D51" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E51" t="s">
         <v>7</v>
@@ -4605,16 +4596,16 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>20330051920050</v>
+        <v>20330051920107</v>
       </c>
       <c r="B52" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
         <v>79</v>
       </c>
       <c r="D52" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E52" t="s">
         <v>10</v>
@@ -4625,56 +4616,56 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>20330051920050</v>
+        <v>20330051920109</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D53" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E53" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>20330051920050</v>
+        <v>20330051920109</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C54" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D54" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>20330051920050</v>
+        <v>20330051920109</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D55" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E55" t="s">
         <v>9</v>
@@ -4685,13 +4676,13 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>20330051920051</v>
+        <v>20330051920111</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D56" t="s">
         <v>119</v>
@@ -4705,2724 +4696,42 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>20330051920051</v>
+        <v>20330051920112</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D57" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F57" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>20330051920051</v>
+        <v>20330051920113</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C58" t="s">
         <v>99</v>
       </c>
       <c r="D58" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E58" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59">
-        <v>20330051920051</v>
-      </c>
-      <c r="B59" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59" t="s">
-        <v>119</v>
-      </c>
-      <c r="E59" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60">
-        <v>20330051920051</v>
-      </c>
-      <c r="B60" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" t="s">
-        <v>99</v>
-      </c>
-      <c r="D60" t="s">
-        <v>119</v>
-      </c>
-      <c r="E60" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61">
-        <v>20330051920051</v>
-      </c>
-      <c r="B61" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" t="s">
-        <v>99</v>
-      </c>
-      <c r="D61" t="s">
-        <v>119</v>
-      </c>
-      <c r="E61" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62">
-        <v>20330051920365</v>
-      </c>
-      <c r="B62" t="s">
-        <v>72</v>
-      </c>
-      <c r="C62" t="s">
-        <v>100</v>
-      </c>
-      <c r="D62" t="s">
-        <v>122</v>
-      </c>
-      <c r="E62" t="s">
-        <v>6</v>
-      </c>
-      <c r="F62" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63">
-        <v>20330051920365</v>
-      </c>
-      <c r="B63" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" t="s">
-        <v>100</v>
-      </c>
-      <c r="D63" t="s">
-        <v>122</v>
-      </c>
-      <c r="E63" t="s">
-        <v>7</v>
-      </c>
-      <c r="F63" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64">
-        <v>20330051920365</v>
-      </c>
-      <c r="B64" t="s">
-        <v>72</v>
-      </c>
-      <c r="C64" t="s">
-        <v>100</v>
-      </c>
-      <c r="D64" t="s">
-        <v>122</v>
-      </c>
-      <c r="E64" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65">
-        <v>20330051920365</v>
-      </c>
-      <c r="B65" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" t="s">
-        <v>100</v>
-      </c>
-      <c r="D65" t="s">
-        <v>122</v>
-      </c>
-      <c r="E65" t="s">
-        <v>5</v>
-      </c>
-      <c r="F65" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>20330051920365</v>
-      </c>
-      <c r="B66" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66" t="s">
-        <v>100</v>
-      </c>
-      <c r="D66" t="s">
-        <v>122</v>
-      </c>
-      <c r="E66" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67">
-        <v>20330051920365</v>
-      </c>
-      <c r="B67" t="s">
-        <v>72</v>
-      </c>
-      <c r="C67" t="s">
-        <v>100</v>
-      </c>
-      <c r="D67" t="s">
-        <v>122</v>
-      </c>
-      <c r="E67" t="s">
-        <v>9</v>
-      </c>
-      <c r="F67" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68">
-        <v>20330051920052</v>
-      </c>
-      <c r="B68" t="s">
-        <v>73</v>
-      </c>
-      <c r="C68" t="s">
-        <v>101</v>
-      </c>
-      <c r="D68" t="s">
-        <v>123</v>
-      </c>
-      <c r="E68" t="s">
-        <v>6</v>
-      </c>
-      <c r="F68" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69">
-        <v>20330051920052</v>
-      </c>
-      <c r="B69" t="s">
-        <v>73</v>
-      </c>
-      <c r="C69" t="s">
-        <v>101</v>
-      </c>
-      <c r="D69" t="s">
-        <v>123</v>
-      </c>
-      <c r="E69" t="s">
-        <v>7</v>
-      </c>
-      <c r="F69" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70">
-        <v>20330051920052</v>
-      </c>
-      <c r="B70" t="s">
-        <v>73</v>
-      </c>
-      <c r="C70" t="s">
-        <v>101</v>
-      </c>
-      <c r="D70" t="s">
-        <v>123</v>
-      </c>
-      <c r="E70" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71">
-        <v>20330051920052</v>
-      </c>
-      <c r="B71" t="s">
-        <v>73</v>
-      </c>
-      <c r="C71" t="s">
-        <v>101</v>
-      </c>
-      <c r="D71" t="s">
-        <v>123</v>
-      </c>
-      <c r="E71" t="s">
-        <v>5</v>
-      </c>
-      <c r="F71" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72">
-        <v>20330051920052</v>
-      </c>
-      <c r="B72" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" t="s">
-        <v>101</v>
-      </c>
-      <c r="D72" t="s">
-        <v>123</v>
-      </c>
-      <c r="E72" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73">
-        <v>20330051920052</v>
-      </c>
-      <c r="B73" t="s">
-        <v>73</v>
-      </c>
-      <c r="C73" t="s">
-        <v>101</v>
-      </c>
-      <c r="D73" t="s">
-        <v>123</v>
-      </c>
-      <c r="E73" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74">
-        <v>20330051920053</v>
-      </c>
-      <c r="B74" t="s">
-        <v>74</v>
-      </c>
-      <c r="C74" t="s">
-        <v>102</v>
-      </c>
-      <c r="D74" t="s">
-        <v>124</v>
-      </c>
-      <c r="E74" t="s">
-        <v>6</v>
-      </c>
-      <c r="F74" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75">
-        <v>20330051920053</v>
-      </c>
-      <c r="B75" t="s">
-        <v>74</v>
-      </c>
-      <c r="C75" t="s">
-        <v>102</v>
-      </c>
-      <c r="D75" t="s">
-        <v>124</v>
-      </c>
-      <c r="E75" t="s">
-        <v>7</v>
-      </c>
-      <c r="F75" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76">
-        <v>20330051920053</v>
-      </c>
-      <c r="B76" t="s">
-        <v>74</v>
-      </c>
-      <c r="C76" t="s">
-        <v>102</v>
-      </c>
-      <c r="D76" t="s">
-        <v>124</v>
-      </c>
-      <c r="E76" t="s">
-        <v>10</v>
-      </c>
-      <c r="F76" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77">
-        <v>20330051920053</v>
-      </c>
-      <c r="B77" t="s">
-        <v>74</v>
-      </c>
-      <c r="C77" t="s">
-        <v>102</v>
-      </c>
-      <c r="D77" t="s">
-        <v>124</v>
-      </c>
-      <c r="E77" t="s">
-        <v>5</v>
-      </c>
-      <c r="F77" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78">
-        <v>20330051920053</v>
-      </c>
-      <c r="B78" t="s">
-        <v>74</v>
-      </c>
-      <c r="C78" t="s">
-        <v>102</v>
-      </c>
-      <c r="D78" t="s">
-        <v>124</v>
-      </c>
-      <c r="E78" t="s">
-        <v>8</v>
-      </c>
-      <c r="F78" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79">
-        <v>20330051920053</v>
-      </c>
-      <c r="B79" t="s">
-        <v>74</v>
-      </c>
-      <c r="C79" t="s">
-        <v>102</v>
-      </c>
-      <c r="D79" t="s">
-        <v>124</v>
-      </c>
-      <c r="E79" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80">
-        <v>20330051920055</v>
-      </c>
-      <c r="B80" t="s">
-        <v>75</v>
-      </c>
-      <c r="C80" t="s">
-        <v>73</v>
-      </c>
-      <c r="D80" t="s">
-        <v>125</v>
-      </c>
-      <c r="E80" t="s">
-        <v>6</v>
-      </c>
-      <c r="F80" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81">
-        <v>20330051920055</v>
-      </c>
-      <c r="B81" t="s">
-        <v>75</v>
-      </c>
-      <c r="C81" t="s">
-        <v>73</v>
-      </c>
-      <c r="D81" t="s">
-        <v>125</v>
-      </c>
-      <c r="E81" t="s">
-        <v>7</v>
-      </c>
-      <c r="F81" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82">
-        <v>20330051920055</v>
-      </c>
-      <c r="B82" t="s">
-        <v>75</v>
-      </c>
-      <c r="C82" t="s">
-        <v>73</v>
-      </c>
-      <c r="D82" t="s">
-        <v>125</v>
-      </c>
-      <c r="E82" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
-      <c r="A83">
-        <v>20330051920055</v>
-      </c>
-      <c r="B83" t="s">
-        <v>75</v>
-      </c>
-      <c r="C83" t="s">
-        <v>73</v>
-      </c>
-      <c r="D83" t="s">
-        <v>125</v>
-      </c>
-      <c r="E83" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84">
-        <v>20330051920055</v>
-      </c>
-      <c r="B84" t="s">
-        <v>75</v>
-      </c>
-      <c r="C84" t="s">
-        <v>73</v>
-      </c>
-      <c r="D84" t="s">
-        <v>125</v>
-      </c>
-      <c r="E84" t="s">
-        <v>8</v>
-      </c>
-      <c r="F84" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
-      <c r="A85">
-        <v>20330051920055</v>
-      </c>
-      <c r="B85" t="s">
-        <v>75</v>
-      </c>
-      <c r="C85" t="s">
-        <v>73</v>
-      </c>
-      <c r="D85" t="s">
-        <v>125</v>
-      </c>
-      <c r="E85" t="s">
-        <v>9</v>
-      </c>
-      <c r="F85" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86">
-        <v>20330051920056</v>
-      </c>
-      <c r="B86" t="s">
-        <v>76</v>
-      </c>
-      <c r="C86" t="s">
-        <v>103</v>
-      </c>
-      <c r="D86" t="s">
-        <v>126</v>
-      </c>
-      <c r="E86" t="s">
-        <v>6</v>
-      </c>
-      <c r="F86" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
-      <c r="A87">
-        <v>20330051920056</v>
-      </c>
-      <c r="B87" t="s">
-        <v>76</v>
-      </c>
-      <c r="C87" t="s">
-        <v>103</v>
-      </c>
-      <c r="D87" t="s">
-        <v>126</v>
-      </c>
-      <c r="E87" t="s">
-        <v>7</v>
-      </c>
-      <c r="F87" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88">
-        <v>20330051920056</v>
-      </c>
-      <c r="B88" t="s">
-        <v>76</v>
-      </c>
-      <c r="C88" t="s">
-        <v>103</v>
-      </c>
-      <c r="D88" t="s">
-        <v>126</v>
-      </c>
-      <c r="E88" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
-      <c r="A89">
-        <v>20330051920056</v>
-      </c>
-      <c r="B89" t="s">
-        <v>76</v>
-      </c>
-      <c r="C89" t="s">
-        <v>103</v>
-      </c>
-      <c r="D89" t="s">
-        <v>126</v>
-      </c>
-      <c r="E89" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90">
-        <v>20330051920056</v>
-      </c>
-      <c r="B90" t="s">
-        <v>76</v>
-      </c>
-      <c r="C90" t="s">
-        <v>103</v>
-      </c>
-      <c r="D90" t="s">
-        <v>126</v>
-      </c>
-      <c r="E90" t="s">
-        <v>8</v>
-      </c>
-      <c r="F90" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91">
-        <v>20330051920056</v>
-      </c>
-      <c r="B91" t="s">
-        <v>76</v>
-      </c>
-      <c r="C91" t="s">
-        <v>103</v>
-      </c>
-      <c r="D91" t="s">
-        <v>126</v>
-      </c>
-      <c r="E91" t="s">
-        <v>9</v>
-      </c>
-      <c r="F91" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92">
-        <v>20330051920057</v>
-      </c>
-      <c r="B92" t="s">
-        <v>75</v>
-      </c>
-      <c r="C92" t="s">
-        <v>104</v>
-      </c>
-      <c r="D92" t="s">
-        <v>127</v>
-      </c>
-      <c r="E92" t="s">
-        <v>6</v>
-      </c>
-      <c r="F92" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93">
-        <v>20330051920057</v>
-      </c>
-      <c r="B93" t="s">
-        <v>75</v>
-      </c>
-      <c r="C93" t="s">
-        <v>104</v>
-      </c>
-      <c r="D93" t="s">
-        <v>127</v>
-      </c>
-      <c r="E93" t="s">
-        <v>7</v>
-      </c>
-      <c r="F93" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94">
-        <v>20330051920057</v>
-      </c>
-      <c r="B94" t="s">
-        <v>75</v>
-      </c>
-      <c r="C94" t="s">
-        <v>104</v>
-      </c>
-      <c r="D94" t="s">
-        <v>127</v>
-      </c>
-      <c r="E94" t="s">
-        <v>10</v>
-      </c>
-      <c r="F94" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95">
-        <v>20330051920057</v>
-      </c>
-      <c r="B95" t="s">
-        <v>75</v>
-      </c>
-      <c r="C95" t="s">
-        <v>104</v>
-      </c>
-      <c r="D95" t="s">
-        <v>127</v>
-      </c>
-      <c r="E95" t="s">
-        <v>5</v>
-      </c>
-      <c r="F95" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96">
-        <v>20330051920057</v>
-      </c>
-      <c r="B96" t="s">
-        <v>75</v>
-      </c>
-      <c r="C96" t="s">
-        <v>104</v>
-      </c>
-      <c r="D96" t="s">
-        <v>127</v>
-      </c>
-      <c r="E96" t="s">
-        <v>8</v>
-      </c>
-      <c r="F96" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97">
-        <v>20330051920057</v>
-      </c>
-      <c r="B97" t="s">
-        <v>75</v>
-      </c>
-      <c r="C97" t="s">
-        <v>104</v>
-      </c>
-      <c r="D97" t="s">
-        <v>127</v>
-      </c>
-      <c r="E97" t="s">
-        <v>9</v>
-      </c>
-      <c r="F97" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98">
-        <v>20330051920095</v>
-      </c>
-      <c r="B98" t="s">
-        <v>77</v>
-      </c>
-      <c r="C98" t="s">
-        <v>76</v>
-      </c>
-      <c r="D98" t="s">
-        <v>128</v>
-      </c>
-      <c r="E98" t="s">
-        <v>6</v>
-      </c>
-      <c r="F98" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99">
-        <v>20330051920095</v>
-      </c>
-      <c r="B99" t="s">
-        <v>77</v>
-      </c>
-      <c r="C99" t="s">
-        <v>76</v>
-      </c>
-      <c r="D99" t="s">
-        <v>128</v>
-      </c>
-      <c r="E99" t="s">
-        <v>7</v>
-      </c>
-      <c r="F99" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100">
-        <v>20330051920095</v>
-      </c>
-      <c r="B100" t="s">
-        <v>77</v>
-      </c>
-      <c r="C100" t="s">
-        <v>76</v>
-      </c>
-      <c r="D100" t="s">
-        <v>128</v>
-      </c>
-      <c r="E100" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>20330051920095</v>
-      </c>
-      <c r="B101" t="s">
-        <v>77</v>
-      </c>
-      <c r="C101" t="s">
-        <v>76</v>
-      </c>
-      <c r="D101" t="s">
-        <v>128</v>
-      </c>
-      <c r="E101" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>20330051920095</v>
-      </c>
-      <c r="B102" t="s">
-        <v>77</v>
-      </c>
-      <c r="C102" t="s">
-        <v>76</v>
-      </c>
-      <c r="D102" t="s">
-        <v>128</v>
-      </c>
-      <c r="E102" t="s">
-        <v>8</v>
-      </c>
-      <c r="F102" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>20330051920095</v>
-      </c>
-      <c r="B103" t="s">
-        <v>77</v>
-      </c>
-      <c r="C103" t="s">
-        <v>76</v>
-      </c>
-      <c r="D103" t="s">
-        <v>128</v>
-      </c>
-      <c r="E103" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>20330051920096</v>
-      </c>
-      <c r="B104" t="s">
-        <v>78</v>
-      </c>
-      <c r="C104" t="s">
-        <v>105</v>
-      </c>
-      <c r="D104" t="s">
-        <v>129</v>
-      </c>
-      <c r="E104" t="s">
-        <v>6</v>
-      </c>
-      <c r="F104" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>20330051920096</v>
-      </c>
-      <c r="B105" t="s">
-        <v>78</v>
-      </c>
-      <c r="C105" t="s">
-        <v>105</v>
-      </c>
-      <c r="D105" t="s">
-        <v>129</v>
-      </c>
-      <c r="E105" t="s">
-        <v>7</v>
-      </c>
-      <c r="F105" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>20330051920096</v>
-      </c>
-      <c r="B106" t="s">
-        <v>78</v>
-      </c>
-      <c r="C106" t="s">
-        <v>105</v>
-      </c>
-      <c r="D106" t="s">
-        <v>129</v>
-      </c>
-      <c r="E106" t="s">
-        <v>10</v>
-      </c>
-      <c r="F106" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>20330051920096</v>
-      </c>
-      <c r="B107" t="s">
-        <v>78</v>
-      </c>
-      <c r="C107" t="s">
-        <v>105</v>
-      </c>
-      <c r="D107" t="s">
-        <v>129</v>
-      </c>
-      <c r="E107" t="s">
-        <v>5</v>
-      </c>
-      <c r="F107" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>20330051920096</v>
-      </c>
-      <c r="B108" t="s">
-        <v>78</v>
-      </c>
-      <c r="C108" t="s">
-        <v>105</v>
-      </c>
-      <c r="D108" t="s">
-        <v>129</v>
-      </c>
-      <c r="E108" t="s">
-        <v>8</v>
-      </c>
-      <c r="F108" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>20330051920096</v>
-      </c>
-      <c r="B109" t="s">
-        <v>78</v>
-      </c>
-      <c r="C109" t="s">
-        <v>105</v>
-      </c>
-      <c r="D109" t="s">
-        <v>129</v>
-      </c>
-      <c r="E109" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>20330051920097</v>
-      </c>
-      <c r="B110" t="s">
-        <v>79</v>
-      </c>
-      <c r="C110" t="s">
-        <v>106</v>
-      </c>
-      <c r="D110" t="s">
-        <v>130</v>
-      </c>
-      <c r="E110" t="s">
-        <v>6</v>
-      </c>
-      <c r="F110" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>20330051920097</v>
-      </c>
-      <c r="B111" t="s">
-        <v>79</v>
-      </c>
-      <c r="C111" t="s">
-        <v>106</v>
-      </c>
-      <c r="D111" t="s">
-        <v>130</v>
-      </c>
-      <c r="E111" t="s">
-        <v>7</v>
-      </c>
-      <c r="F111" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>20330051920097</v>
-      </c>
-      <c r="B112" t="s">
-        <v>79</v>
-      </c>
-      <c r="C112" t="s">
-        <v>106</v>
-      </c>
-      <c r="D112" t="s">
-        <v>130</v>
-      </c>
-      <c r="E112" t="s">
-        <v>10</v>
-      </c>
-      <c r="F112" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>20330051920097</v>
-      </c>
-      <c r="B113" t="s">
-        <v>79</v>
-      </c>
-      <c r="C113" t="s">
-        <v>106</v>
-      </c>
-      <c r="D113" t="s">
-        <v>130</v>
-      </c>
-      <c r="E113" t="s">
-        <v>5</v>
-      </c>
-      <c r="F113" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>20330051920097</v>
-      </c>
-      <c r="B114" t="s">
-        <v>79</v>
-      </c>
-      <c r="C114" t="s">
-        <v>106</v>
-      </c>
-      <c r="D114" t="s">
-        <v>130</v>
-      </c>
-      <c r="E114" t="s">
-        <v>8</v>
-      </c>
-      <c r="F114" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>20330051920097</v>
-      </c>
-      <c r="B115" t="s">
-        <v>79</v>
-      </c>
-      <c r="C115" t="s">
-        <v>106</v>
-      </c>
-      <c r="D115" t="s">
-        <v>130</v>
-      </c>
-      <c r="E115" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>20330051920099</v>
-      </c>
-      <c r="B116" t="s">
-        <v>80</v>
-      </c>
-      <c r="D116" t="s">
-        <v>131</v>
-      </c>
-      <c r="E116" t="s">
-        <v>6</v>
-      </c>
-      <c r="F116" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>20330051920099</v>
-      </c>
-      <c r="B117" t="s">
-        <v>80</v>
-      </c>
-      <c r="D117" t="s">
-        <v>131</v>
-      </c>
-      <c r="E117" t="s">
-        <v>7</v>
-      </c>
-      <c r="F117" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>20330051920099</v>
-      </c>
-      <c r="B118" t="s">
-        <v>80</v>
-      </c>
-      <c r="D118" t="s">
-        <v>131</v>
-      </c>
-      <c r="E118" t="s">
-        <v>10</v>
-      </c>
-      <c r="F118" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>20330051920099</v>
-      </c>
-      <c r="B119" t="s">
-        <v>80</v>
-      </c>
-      <c r="D119" t="s">
-        <v>131</v>
-      </c>
-      <c r="E119" t="s">
-        <v>5</v>
-      </c>
-      <c r="F119" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>20330051920099</v>
-      </c>
-      <c r="B120" t="s">
-        <v>80</v>
-      </c>
-      <c r="D120" t="s">
-        <v>131</v>
-      </c>
-      <c r="E120" t="s">
-        <v>8</v>
-      </c>
-      <c r="F120" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>20330051920099</v>
-      </c>
-      <c r="B121" t="s">
-        <v>80</v>
-      </c>
-      <c r="D121" t="s">
-        <v>131</v>
-      </c>
-      <c r="E121" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>20330051920366</v>
-      </c>
-      <c r="B122" t="s">
-        <v>81</v>
-      </c>
-      <c r="C122" t="s">
-        <v>75</v>
-      </c>
-      <c r="D122" t="s">
-        <v>132</v>
-      </c>
-      <c r="E122" t="s">
-        <v>6</v>
-      </c>
-      <c r="F122" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>20330051920366</v>
-      </c>
-      <c r="B123" t="s">
-        <v>81</v>
-      </c>
-      <c r="C123" t="s">
-        <v>75</v>
-      </c>
-      <c r="D123" t="s">
-        <v>132</v>
-      </c>
-      <c r="E123" t="s">
-        <v>7</v>
-      </c>
-      <c r="F123" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>20330051920366</v>
-      </c>
-      <c r="B124" t="s">
-        <v>81</v>
-      </c>
-      <c r="C124" t="s">
-        <v>75</v>
-      </c>
-      <c r="D124" t="s">
-        <v>132</v>
-      </c>
-      <c r="E124" t="s">
-        <v>10</v>
-      </c>
-      <c r="F124" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>20330051920366</v>
-      </c>
-      <c r="B125" t="s">
-        <v>81</v>
-      </c>
-      <c r="C125" t="s">
-        <v>75</v>
-      </c>
-      <c r="D125" t="s">
-        <v>132</v>
-      </c>
-      <c r="E125" t="s">
-        <v>5</v>
-      </c>
-      <c r="F125" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>20330051920366</v>
-      </c>
-      <c r="B126" t="s">
-        <v>81</v>
-      </c>
-      <c r="C126" t="s">
-        <v>75</v>
-      </c>
-      <c r="D126" t="s">
-        <v>132</v>
-      </c>
-      <c r="E126" t="s">
-        <v>8</v>
-      </c>
-      <c r="F126" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>20330051920366</v>
-      </c>
-      <c r="B127" t="s">
-        <v>81</v>
-      </c>
-      <c r="C127" t="s">
-        <v>75</v>
-      </c>
-      <c r="D127" t="s">
-        <v>132</v>
-      </c>
-      <c r="E127" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>20330051920367</v>
-      </c>
-      <c r="B128" t="s">
-        <v>81</v>
-      </c>
-      <c r="C128" t="s">
-        <v>75</v>
-      </c>
-      <c r="D128" t="s">
-        <v>133</v>
-      </c>
-      <c r="E128" t="s">
-        <v>6</v>
-      </c>
-      <c r="F128" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>20330051920367</v>
-      </c>
-      <c r="B129" t="s">
-        <v>81</v>
-      </c>
-      <c r="C129" t="s">
-        <v>75</v>
-      </c>
-      <c r="D129" t="s">
-        <v>133</v>
-      </c>
-      <c r="E129" t="s">
-        <v>7</v>
-      </c>
-      <c r="F129" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>20330051920367</v>
-      </c>
-      <c r="B130" t="s">
-        <v>81</v>
-      </c>
-      <c r="C130" t="s">
-        <v>75</v>
-      </c>
-      <c r="D130" t="s">
-        <v>133</v>
-      </c>
-      <c r="E130" t="s">
-        <v>10</v>
-      </c>
-      <c r="F130" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>20330051920367</v>
-      </c>
-      <c r="B131" t="s">
-        <v>81</v>
-      </c>
-      <c r="C131" t="s">
-        <v>75</v>
-      </c>
-      <c r="D131" t="s">
-        <v>133</v>
-      </c>
-      <c r="E131" t="s">
-        <v>5</v>
-      </c>
-      <c r="F131" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>20330051920367</v>
-      </c>
-      <c r="B132" t="s">
-        <v>81</v>
-      </c>
-      <c r="C132" t="s">
-        <v>75</v>
-      </c>
-      <c r="D132" t="s">
-        <v>133</v>
-      </c>
-      <c r="E132" t="s">
-        <v>8</v>
-      </c>
-      <c r="F132" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>20330051920367</v>
-      </c>
-      <c r="B133" t="s">
-        <v>81</v>
-      </c>
-      <c r="C133" t="s">
-        <v>75</v>
-      </c>
-      <c r="D133" t="s">
-        <v>133</v>
-      </c>
-      <c r="E133" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>20330051920100</v>
-      </c>
-      <c r="B134" t="s">
-        <v>82</v>
-      </c>
-      <c r="C134" t="s">
-        <v>107</v>
-      </c>
-      <c r="D134" t="s">
-        <v>134</v>
-      </c>
-      <c r="E134" t="s">
-        <v>6</v>
-      </c>
-      <c r="F134" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>20330051920100</v>
-      </c>
-      <c r="B135" t="s">
-        <v>82</v>
-      </c>
-      <c r="C135" t="s">
-        <v>107</v>
-      </c>
-      <c r="D135" t="s">
-        <v>134</v>
-      </c>
-      <c r="E135" t="s">
-        <v>7</v>
-      </c>
-      <c r="F135" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>20330051920100</v>
-      </c>
-      <c r="B136" t="s">
-        <v>82</v>
-      </c>
-      <c r="C136" t="s">
-        <v>107</v>
-      </c>
-      <c r="D136" t="s">
-        <v>134</v>
-      </c>
-      <c r="E136" t="s">
-        <v>10</v>
-      </c>
-      <c r="F136" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>20330051920100</v>
-      </c>
-      <c r="B137" t="s">
-        <v>82</v>
-      </c>
-      <c r="C137" t="s">
-        <v>107</v>
-      </c>
-      <c r="D137" t="s">
-        <v>134</v>
-      </c>
-      <c r="E137" t="s">
-        <v>5</v>
-      </c>
-      <c r="F137" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>20330051920100</v>
-      </c>
-      <c r="B138" t="s">
-        <v>82</v>
-      </c>
-      <c r="C138" t="s">
-        <v>107</v>
-      </c>
-      <c r="D138" t="s">
-        <v>134</v>
-      </c>
-      <c r="E138" t="s">
-        <v>8</v>
-      </c>
-      <c r="F138" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>20330051920100</v>
-      </c>
-      <c r="B139" t="s">
-        <v>82</v>
-      </c>
-      <c r="C139" t="s">
-        <v>107</v>
-      </c>
-      <c r="D139" t="s">
-        <v>134</v>
-      </c>
-      <c r="E139" t="s">
-        <v>9</v>
-      </c>
-      <c r="F139" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>20330051920101</v>
-      </c>
-      <c r="B140" t="s">
-        <v>83</v>
-      </c>
-      <c r="C140" t="s">
-        <v>108</v>
-      </c>
-      <c r="D140" t="s">
-        <v>135</v>
-      </c>
-      <c r="E140" t="s">
-        <v>6</v>
-      </c>
-      <c r="F140" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>20330051920101</v>
-      </c>
-      <c r="B141" t="s">
-        <v>83</v>
-      </c>
-      <c r="C141" t="s">
-        <v>108</v>
-      </c>
-      <c r="D141" t="s">
-        <v>135</v>
-      </c>
-      <c r="E141" t="s">
-        <v>7</v>
-      </c>
-      <c r="F141" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>20330051920101</v>
-      </c>
-      <c r="B142" t="s">
-        <v>83</v>
-      </c>
-      <c r="C142" t="s">
-        <v>108</v>
-      </c>
-      <c r="D142" t="s">
-        <v>135</v>
-      </c>
-      <c r="E142" t="s">
-        <v>10</v>
-      </c>
-      <c r="F142" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>20330051920101</v>
-      </c>
-      <c r="B143" t="s">
-        <v>83</v>
-      </c>
-      <c r="C143" t="s">
-        <v>108</v>
-      </c>
-      <c r="D143" t="s">
-        <v>135</v>
-      </c>
-      <c r="E143" t="s">
-        <v>5</v>
-      </c>
-      <c r="F143" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>20330051920101</v>
-      </c>
-      <c r="B144" t="s">
-        <v>83</v>
-      </c>
-      <c r="C144" t="s">
-        <v>108</v>
-      </c>
-      <c r="D144" t="s">
-        <v>135</v>
-      </c>
-      <c r="E144" t="s">
-        <v>8</v>
-      </c>
-      <c r="F144" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>20330051920101</v>
-      </c>
-      <c r="B145" t="s">
-        <v>83</v>
-      </c>
-      <c r="C145" t="s">
-        <v>108</v>
-      </c>
-      <c r="D145" t="s">
-        <v>135</v>
-      </c>
-      <c r="E145" t="s">
-        <v>9</v>
-      </c>
-      <c r="F145" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>20330051920102</v>
-      </c>
-      <c r="B146" t="s">
-        <v>84</v>
-      </c>
-      <c r="C146" t="s">
-        <v>109</v>
-      </c>
-      <c r="D146" t="s">
-        <v>136</v>
-      </c>
-      <c r="E146" t="s">
-        <v>6</v>
-      </c>
-      <c r="F146" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>20330051920102</v>
-      </c>
-      <c r="B147" t="s">
-        <v>84</v>
-      </c>
-      <c r="C147" t="s">
-        <v>109</v>
-      </c>
-      <c r="D147" t="s">
-        <v>136</v>
-      </c>
-      <c r="E147" t="s">
-        <v>7</v>
-      </c>
-      <c r="F147" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>20330051920102</v>
-      </c>
-      <c r="B148" t="s">
-        <v>84</v>
-      </c>
-      <c r="C148" t="s">
-        <v>109</v>
-      </c>
-      <c r="D148" t="s">
-        <v>136</v>
-      </c>
-      <c r="E148" t="s">
-        <v>10</v>
-      </c>
-      <c r="F148" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>20330051920102</v>
-      </c>
-      <c r="B149" t="s">
-        <v>84</v>
-      </c>
-      <c r="C149" t="s">
-        <v>109</v>
-      </c>
-      <c r="D149" t="s">
-        <v>136</v>
-      </c>
-      <c r="E149" t="s">
-        <v>5</v>
-      </c>
-      <c r="F149" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>20330051920102</v>
-      </c>
-      <c r="B150" t="s">
-        <v>84</v>
-      </c>
-      <c r="C150" t="s">
-        <v>109</v>
-      </c>
-      <c r="D150" t="s">
-        <v>136</v>
-      </c>
-      <c r="E150" t="s">
-        <v>8</v>
-      </c>
-      <c r="F150" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>20330051920102</v>
-      </c>
-      <c r="B151" t="s">
-        <v>84</v>
-      </c>
-      <c r="C151" t="s">
-        <v>109</v>
-      </c>
-      <c r="D151" t="s">
-        <v>136</v>
-      </c>
-      <c r="E151" t="s">
-        <v>9</v>
-      </c>
-      <c r="F151" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>20330051920104</v>
-      </c>
-      <c r="B152" t="s">
-        <v>85</v>
-      </c>
-      <c r="C152" t="s">
-        <v>102</v>
-      </c>
-      <c r="D152" t="s">
-        <v>137</v>
-      </c>
-      <c r="E152" t="s">
-        <v>6</v>
-      </c>
-      <c r="F152" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>20330051920104</v>
-      </c>
-      <c r="B153" t="s">
-        <v>85</v>
-      </c>
-      <c r="C153" t="s">
-        <v>102</v>
-      </c>
-      <c r="D153" t="s">
-        <v>137</v>
-      </c>
-      <c r="E153" t="s">
-        <v>7</v>
-      </c>
-      <c r="F153" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>20330051920104</v>
-      </c>
-      <c r="B154" t="s">
-        <v>85</v>
-      </c>
-      <c r="C154" t="s">
-        <v>102</v>
-      </c>
-      <c r="D154" t="s">
-        <v>137</v>
-      </c>
-      <c r="E154" t="s">
-        <v>10</v>
-      </c>
-      <c r="F154" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>20330051920104</v>
-      </c>
-      <c r="B155" t="s">
-        <v>85</v>
-      </c>
-      <c r="C155" t="s">
-        <v>102</v>
-      </c>
-      <c r="D155" t="s">
-        <v>137</v>
-      </c>
-      <c r="E155" t="s">
-        <v>5</v>
-      </c>
-      <c r="F155" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>20330051920104</v>
-      </c>
-      <c r="B156" t="s">
-        <v>85</v>
-      </c>
-      <c r="C156" t="s">
-        <v>102</v>
-      </c>
-      <c r="D156" t="s">
-        <v>137</v>
-      </c>
-      <c r="E156" t="s">
-        <v>8</v>
-      </c>
-      <c r="F156" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>20330051920104</v>
-      </c>
-      <c r="B157" t="s">
-        <v>85</v>
-      </c>
-      <c r="C157" t="s">
-        <v>102</v>
-      </c>
-      <c r="D157" t="s">
-        <v>137</v>
-      </c>
-      <c r="E157" t="s">
-        <v>9</v>
-      </c>
-      <c r="F157" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>20330051920105</v>
-      </c>
-      <c r="B158" t="s">
-        <v>86</v>
-      </c>
-      <c r="C158" t="s">
-        <v>78</v>
-      </c>
-      <c r="D158" t="s">
-        <v>138</v>
-      </c>
-      <c r="E158" t="s">
-        <v>6</v>
-      </c>
-      <c r="F158" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>20330051920105</v>
-      </c>
-      <c r="B159" t="s">
-        <v>86</v>
-      </c>
-      <c r="C159" t="s">
-        <v>78</v>
-      </c>
-      <c r="D159" t="s">
-        <v>138</v>
-      </c>
-      <c r="E159" t="s">
-        <v>7</v>
-      </c>
-      <c r="F159" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>20330051920105</v>
-      </c>
-      <c r="B160" t="s">
-        <v>86</v>
-      </c>
-      <c r="C160" t="s">
-        <v>78</v>
-      </c>
-      <c r="D160" t="s">
-        <v>138</v>
-      </c>
-      <c r="E160" t="s">
-        <v>10</v>
-      </c>
-      <c r="F160" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>20330051920105</v>
-      </c>
-      <c r="B161" t="s">
-        <v>86</v>
-      </c>
-      <c r="C161" t="s">
-        <v>78</v>
-      </c>
-      <c r="D161" t="s">
-        <v>138</v>
-      </c>
-      <c r="E161" t="s">
-        <v>5</v>
-      </c>
-      <c r="F161" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>20330051920105</v>
-      </c>
-      <c r="B162" t="s">
-        <v>86</v>
-      </c>
-      <c r="C162" t="s">
-        <v>78</v>
-      </c>
-      <c r="D162" t="s">
-        <v>138</v>
-      </c>
-      <c r="E162" t="s">
-        <v>8</v>
-      </c>
-      <c r="F162" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>20330051920105</v>
-      </c>
-      <c r="B163" t="s">
-        <v>86</v>
-      </c>
-      <c r="C163" t="s">
-        <v>78</v>
-      </c>
-      <c r="D163" t="s">
-        <v>138</v>
-      </c>
-      <c r="E163" t="s">
-        <v>9</v>
-      </c>
-      <c r="F163" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>20330051920107</v>
-      </c>
-      <c r="B164" t="s">
-        <v>87</v>
-      </c>
-      <c r="C164" t="s">
-        <v>87</v>
-      </c>
-      <c r="D164" t="s">
-        <v>139</v>
-      </c>
-      <c r="E164" t="s">
-        <v>6</v>
-      </c>
-      <c r="F164" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>20330051920107</v>
-      </c>
-      <c r="B165" t="s">
-        <v>87</v>
-      </c>
-      <c r="C165" t="s">
-        <v>87</v>
-      </c>
-      <c r="D165" t="s">
-        <v>139</v>
-      </c>
-      <c r="E165" t="s">
-        <v>7</v>
-      </c>
-      <c r="F165" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>20330051920107</v>
-      </c>
-      <c r="B166" t="s">
-        <v>87</v>
-      </c>
-      <c r="C166" t="s">
-        <v>87</v>
-      </c>
-      <c r="D166" t="s">
-        <v>139</v>
-      </c>
-      <c r="E166" t="s">
-        <v>10</v>
-      </c>
-      <c r="F166" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>20330051920107</v>
-      </c>
-      <c r="B167" t="s">
-        <v>87</v>
-      </c>
-      <c r="C167" t="s">
-        <v>87</v>
-      </c>
-      <c r="D167" t="s">
-        <v>139</v>
-      </c>
-      <c r="E167" t="s">
-        <v>5</v>
-      </c>
-      <c r="F167" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168">
-        <v>20330051920107</v>
-      </c>
-      <c r="B168" t="s">
-        <v>87</v>
-      </c>
-      <c r="C168" t="s">
-        <v>87</v>
-      </c>
-      <c r="D168" t="s">
-        <v>139</v>
-      </c>
-      <c r="E168" t="s">
-        <v>8</v>
-      </c>
-      <c r="F168" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>20330051920107</v>
-      </c>
-      <c r="B169" t="s">
-        <v>87</v>
-      </c>
-      <c r="C169" t="s">
-        <v>87</v>
-      </c>
-      <c r="D169" t="s">
-        <v>139</v>
-      </c>
-      <c r="E169" t="s">
-        <v>9</v>
-      </c>
-      <c r="F169" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170">
-        <v>20330051920109</v>
-      </c>
-      <c r="B170" t="s">
-        <v>88</v>
-      </c>
-      <c r="C170" t="s">
-        <v>98</v>
-      </c>
-      <c r="D170" t="s">
-        <v>140</v>
-      </c>
-      <c r="E170" t="s">
-        <v>6</v>
-      </c>
-      <c r="F170" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171">
-        <v>20330051920109</v>
-      </c>
-      <c r="B171" t="s">
-        <v>88</v>
-      </c>
-      <c r="C171" t="s">
-        <v>98</v>
-      </c>
-      <c r="D171" t="s">
-        <v>140</v>
-      </c>
-      <c r="E171" t="s">
-        <v>7</v>
-      </c>
-      <c r="F171" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172">
-        <v>20330051920109</v>
-      </c>
-      <c r="B172" t="s">
-        <v>88</v>
-      </c>
-      <c r="C172" t="s">
-        <v>98</v>
-      </c>
-      <c r="D172" t="s">
-        <v>140</v>
-      </c>
-      <c r="E172" t="s">
-        <v>10</v>
-      </c>
-      <c r="F172" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173">
-        <v>20330051920109</v>
-      </c>
-      <c r="B173" t="s">
-        <v>88</v>
-      </c>
-      <c r="C173" t="s">
-        <v>98</v>
-      </c>
-      <c r="D173" t="s">
-        <v>140</v>
-      </c>
-      <c r="E173" t="s">
-        <v>5</v>
-      </c>
-      <c r="F173" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174">
-        <v>20330051920109</v>
-      </c>
-      <c r="B174" t="s">
-        <v>88</v>
-      </c>
-      <c r="C174" t="s">
-        <v>98</v>
-      </c>
-      <c r="D174" t="s">
-        <v>140</v>
-      </c>
-      <c r="E174" t="s">
-        <v>8</v>
-      </c>
-      <c r="F174" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175">
-        <v>20330051920109</v>
-      </c>
-      <c r="B175" t="s">
-        <v>88</v>
-      </c>
-      <c r="C175" t="s">
-        <v>98</v>
-      </c>
-      <c r="D175" t="s">
-        <v>140</v>
-      </c>
-      <c r="E175" t="s">
-        <v>9</v>
-      </c>
-      <c r="F175" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176">
-        <v>20330051920111</v>
-      </c>
-      <c r="B176" t="s">
-        <v>89</v>
-      </c>
-      <c r="C176" t="s">
-        <v>110</v>
-      </c>
-      <c r="D176" t="s">
-        <v>141</v>
-      </c>
-      <c r="E176" t="s">
-        <v>6</v>
-      </c>
-      <c r="F176" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177">
-        <v>20330051920111</v>
-      </c>
-      <c r="B177" t="s">
-        <v>89</v>
-      </c>
-      <c r="C177" t="s">
-        <v>110</v>
-      </c>
-      <c r="D177" t="s">
-        <v>141</v>
-      </c>
-      <c r="E177" t="s">
-        <v>7</v>
-      </c>
-      <c r="F177" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178">
-        <v>20330051920111</v>
-      </c>
-      <c r="B178" t="s">
-        <v>89</v>
-      </c>
-      <c r="C178" t="s">
-        <v>110</v>
-      </c>
-      <c r="D178" t="s">
-        <v>141</v>
-      </c>
-      <c r="E178" t="s">
-        <v>10</v>
-      </c>
-      <c r="F178" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179">
-        <v>20330051920111</v>
-      </c>
-      <c r="B179" t="s">
-        <v>89</v>
-      </c>
-      <c r="C179" t="s">
-        <v>110</v>
-      </c>
-      <c r="D179" t="s">
-        <v>141</v>
-      </c>
-      <c r="E179" t="s">
-        <v>5</v>
-      </c>
-      <c r="F179" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
-      <c r="A180">
-        <v>20330051920111</v>
-      </c>
-      <c r="B180" t="s">
-        <v>89</v>
-      </c>
-      <c r="C180" t="s">
-        <v>110</v>
-      </c>
-      <c r="D180" t="s">
-        <v>141</v>
-      </c>
-      <c r="E180" t="s">
-        <v>8</v>
-      </c>
-      <c r="F180" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
-      <c r="A181">
-        <v>20330051920111</v>
-      </c>
-      <c r="B181" t="s">
-        <v>89</v>
-      </c>
-      <c r="C181" t="s">
-        <v>110</v>
-      </c>
-      <c r="D181" t="s">
-        <v>141</v>
-      </c>
-      <c r="E181" t="s">
-        <v>9</v>
-      </c>
-      <c r="F181" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6">
-      <c r="A182">
-        <v>20330051920112</v>
-      </c>
-      <c r="B182" t="s">
-        <v>90</v>
-      </c>
-      <c r="C182" t="s">
-        <v>111</v>
-      </c>
-      <c r="D182" t="s">
-        <v>142</v>
-      </c>
-      <c r="E182" t="s">
-        <v>6</v>
-      </c>
-      <c r="F182" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6">
-      <c r="A183">
-        <v>20330051920112</v>
-      </c>
-      <c r="B183" t="s">
-        <v>90</v>
-      </c>
-      <c r="C183" t="s">
-        <v>111</v>
-      </c>
-      <c r="D183" t="s">
-        <v>142</v>
-      </c>
-      <c r="E183" t="s">
-        <v>7</v>
-      </c>
-      <c r="F183" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6">
-      <c r="A184">
-        <v>20330051920112</v>
-      </c>
-      <c r="B184" t="s">
-        <v>90</v>
-      </c>
-      <c r="C184" t="s">
-        <v>111</v>
-      </c>
-      <c r="D184" t="s">
-        <v>142</v>
-      </c>
-      <c r="E184" t="s">
-        <v>10</v>
-      </c>
-      <c r="F184" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
-      <c r="A185">
-        <v>20330051920112</v>
-      </c>
-      <c r="B185" t="s">
-        <v>90</v>
-      </c>
-      <c r="C185" t="s">
-        <v>111</v>
-      </c>
-      <c r="D185" t="s">
-        <v>142</v>
-      </c>
-      <c r="E185" t="s">
-        <v>5</v>
-      </c>
-      <c r="F185" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
-      <c r="A186">
-        <v>20330051920112</v>
-      </c>
-      <c r="B186" t="s">
-        <v>90</v>
-      </c>
-      <c r="C186" t="s">
-        <v>111</v>
-      </c>
-      <c r="D186" t="s">
-        <v>142</v>
-      </c>
-      <c r="E186" t="s">
-        <v>8</v>
-      </c>
-      <c r="F186" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
-      <c r="A187">
-        <v>20330051920112</v>
-      </c>
-      <c r="B187" t="s">
-        <v>90</v>
-      </c>
-      <c r="C187" t="s">
-        <v>111</v>
-      </c>
-      <c r="D187" t="s">
-        <v>142</v>
-      </c>
-      <c r="E187" t="s">
-        <v>9</v>
-      </c>
-      <c r="F187" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
-      <c r="A188">
-        <v>20330051920113</v>
-      </c>
-      <c r="B188" t="s">
-        <v>91</v>
-      </c>
-      <c r="C188" t="s">
-        <v>112</v>
-      </c>
-      <c r="D188" t="s">
-        <v>143</v>
-      </c>
-      <c r="E188" t="s">
-        <v>6</v>
-      </c>
-      <c r="F188" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
-      <c r="A189">
-        <v>20330051920113</v>
-      </c>
-      <c r="B189" t="s">
-        <v>91</v>
-      </c>
-      <c r="C189" t="s">
-        <v>112</v>
-      </c>
-      <c r="D189" t="s">
-        <v>143</v>
-      </c>
-      <c r="E189" t="s">
-        <v>7</v>
-      </c>
-      <c r="F189" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
-      <c r="A190">
-        <v>20330051920113</v>
-      </c>
-      <c r="B190" t="s">
-        <v>91</v>
-      </c>
-      <c r="C190" t="s">
-        <v>112</v>
-      </c>
-      <c r="D190" t="s">
-        <v>143</v>
-      </c>
-      <c r="E190" t="s">
-        <v>10</v>
-      </c>
-      <c r="F190" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
-      <c r="A191">
-        <v>20330051920113</v>
-      </c>
-      <c r="B191" t="s">
-        <v>91</v>
-      </c>
-      <c r="C191" t="s">
-        <v>112</v>
-      </c>
-      <c r="D191" t="s">
-        <v>143</v>
-      </c>
-      <c r="E191" t="s">
-        <v>5</v>
-      </c>
-      <c r="F191" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
-      <c r="A192">
-        <v>20330051920113</v>
-      </c>
-      <c r="B192" t="s">
-        <v>91</v>
-      </c>
-      <c r="C192" t="s">
-        <v>112</v>
-      </c>
-      <c r="D192" t="s">
-        <v>143</v>
-      </c>
-      <c r="E192" t="s">
-        <v>8</v>
-      </c>
-      <c r="F192" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6">
-      <c r="A193">
-        <v>20330051920113</v>
-      </c>
-      <c r="B193" t="s">
-        <v>91</v>
-      </c>
-      <c r="C193" t="s">
-        <v>112</v>
-      </c>
-      <c r="D193" t="s">
-        <v>143</v>
-      </c>
-      <c r="E193" t="s">
-        <v>9</v>
-      </c>
-      <c r="F193" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -7461,543 +4770,543 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>20330051920039</v>
+        <v>20330051920366</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>20330051920040</v>
+        <v>20330051920367</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>20330051920042</v>
+        <v>20330051920050</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>20330051920043</v>
+        <v>20330051920365</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>20330051920044</v>
+        <v>20330051920052</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>20330051920045</v>
+        <v>20330051920055</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>20330051920046</v>
+        <v>20330051920097</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>20330051920048</v>
+        <v>20330051920100</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>20330051920050</v>
+        <v>20330051920099</v>
       </c>
       <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>20330051920051</v>
+        <v>20330051920107</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>20330051920365</v>
+        <v>20330051920109</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>20330051920052</v>
+        <v>20330051920039</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>20330051920053</v>
+        <v>20330051920042</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
         <v>102</v>
       </c>
-      <c r="D14" t="s">
-        <v>124</v>
-      </c>
       <c r="E14">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>20330051920055</v>
+        <v>20330051920040</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920056</v>
+        <v>20330051920044</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D16" t="s">
         <v>103</v>
       </c>
-      <c r="D16" t="s">
-        <v>126</v>
-      </c>
       <c r="E16">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920057</v>
+        <v>20330051920046</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s">
         <v>104</v>
       </c>
-      <c r="D17" t="s">
-        <v>127</v>
-      </c>
       <c r="E17">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920095</v>
+        <v>20330051920051</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920096</v>
+        <v>20330051920053</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920097</v>
+        <v>20330051920101</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E20">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920099</v>
+        <v>20330051920105</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="C21" t="s">
+        <v>96</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E21">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920366</v>
+        <v>20330051920111</v>
       </c>
       <c r="B22" t="s">
         <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="E22">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920367</v>
+        <v>20330051920112</v>
       </c>
       <c r="B23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="D23" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920100</v>
+        <v>20330051920113</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920101</v>
+        <v>20330051920043</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="D25" t="s">
         <v>135</v>
       </c>
       <c r="E25">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920102</v>
+        <v>20330051920045</v>
       </c>
       <c r="B26" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="D26" t="s">
         <v>136</v>
       </c>
       <c r="E26">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920104</v>
+        <v>20330051920048</v>
       </c>
       <c r="B27" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
         <v>137</v>
       </c>
       <c r="E27">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20330051920105</v>
+        <v>20330051920056</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="D28" t="s">
         <v>138</v>
       </c>
       <c r="E28">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20330051920107</v>
+        <v>20330051920057</v>
       </c>
       <c r="B29" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="D29" t="s">
         <v>139</v>
       </c>
       <c r="E29">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20330051920109</v>
+        <v>20330051920095</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="D30" t="s">
         <v>140</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>20330051920111</v>
+        <v>20330051920096</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="D31" t="s">
         <v>141</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20330051920112</v>
+        <v>20330051920102</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="D32" t="s">
         <v>142</v>
       </c>
       <c r="E32">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>20330051920113</v>
+        <v>20330051920104</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="D33" t="s">
         <v>143</v>
       </c>
       <c r="E33">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8048,10 +5357,10 @@
         <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -8060,7 +5369,7 @@
         <v>55</v>
       </c>
       <c r="G2">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -8071,10 +5380,10 @@
         <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -8094,10 +5403,10 @@
         <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -8117,10 +5426,10 @@
         <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -8137,13 +5446,13 @@
         <v>20330051920044</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -8160,13 +5469,13 @@
         <v>20330051920046</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -8183,13 +5492,13 @@
         <v>20330051920051</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -8206,13 +5515,13 @@
         <v>20330051920053</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -8229,13 +5538,13 @@
         <v>20330051920101</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -8252,13 +5561,13 @@
         <v>20330051920105</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -8275,13 +5584,13 @@
         <v>20330051920111</v>
       </c>
       <c r="B12" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -8298,13 +5607,13 @@
         <v>20330051920112</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D13" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -8321,13 +5630,13 @@
         <v>20330051920113</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>

--- a/grupos/3BEM - Estadisticos 20211.xlsx
+++ b/grupos/3BEM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="144">
   <si>
     <t>Materia</t>
   </si>
@@ -215,241 +215,241 @@
     <t>ANASTACIO</t>
   </si>
   <si>
+    <t>CID</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>DIAZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>MENDIZABAL</t>
+  </si>
+  <si>
+    <t>NAJERA</t>
+  </si>
+  <si>
+    <t>NUBE</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>TELLEZ</t>
+  </si>
+  <si>
+    <t>VALENTE</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>CONCHE</t>
+  </si>
+  <si>
+    <t>PORRAS</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>SEGURA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>EVARISTO</t>
+  </si>
+  <si>
+    <t>ALEMAN</t>
+  </si>
+  <si>
+    <t>GAMEZ</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>TEXCAHUA</t>
+  </si>
+  <si>
+    <t>GUSTAVO</t>
+  </si>
+  <si>
+    <t>FRANCISCO ALAN</t>
+  </si>
+  <si>
+    <t>HIRAM FABIAN</t>
+  </si>
+  <si>
+    <t>JESUS</t>
+  </si>
+  <si>
+    <t>YAHIR</t>
+  </si>
+  <si>
+    <t>BRUNO AZAEL</t>
+  </si>
+  <si>
+    <t>CESAR</t>
+  </si>
+  <si>
+    <t>MARIA ASUNCION</t>
+  </si>
+  <si>
+    <t>MARCO ANTONIO</t>
+  </si>
+  <si>
+    <t>ALDAIR ALAN</t>
+  </si>
+  <si>
+    <t>ALDER ALBERTO</t>
+  </si>
+  <si>
+    <t>ELI ANTONIO</t>
+  </si>
+  <si>
+    <t>ISAAC</t>
+  </si>
+  <si>
+    <t>CHRISTIAN YAIR</t>
+  </si>
+  <si>
+    <t>ROSA ISELA</t>
+  </si>
+  <si>
+    <t>BENY ALEXANDER</t>
+  </si>
+  <si>
+    <t>ABIUD</t>
+  </si>
+  <si>
+    <t>GUILLERMO</t>
+  </si>
+  <si>
+    <t>ALEXANDER</t>
+  </si>
+  <si>
+    <t>AGUILAR</t>
+  </si>
+  <si>
     <t>BERNARDO</t>
   </si>
   <si>
-    <t>CID</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
+    <t>CITALAN</t>
+  </si>
+  <si>
+    <t>COLOHUA</t>
   </si>
   <si>
     <t>CRUZ</t>
   </si>
   <si>
-    <t>DIAZ</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>MENDIZABAL</t>
-  </si>
-  <si>
-    <t>NAJERA</t>
-  </si>
-  <si>
-    <t>NUBE</t>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>GUEVARA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
   </si>
   <si>
     <t>ORTIZ</t>
   </si>
   <si>
+    <t>OLMOS</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
     <t>RODRIGUEZ</t>
   </si>
   <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>TELLEZ</t>
-  </si>
-  <si>
-    <t>VALENTE</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>XOTLANIHUA</t>
-  </si>
-  <si>
-    <t>CONCHE</t>
-  </si>
-  <si>
-    <t>PORRAS</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
+    <t>GARCÍA</t>
   </si>
   <si>
     <t>CONCHOA</t>
   </si>
   <si>
-    <t>VALENCIA</t>
+    <t>ROMANOS</t>
   </si>
   <si>
     <t>MARROQUIN</t>
   </si>
   <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>SEGURA</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>EVARISTO</t>
-  </si>
-  <si>
-    <t>ALEMAN</t>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t>MARCELINO</t>
   </si>
   <si>
     <t>ROSETE</t>
   </si>
   <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>GAMEZ</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>TEXCAHUA</t>
-  </si>
-  <si>
-    <t>GUSTAVO</t>
-  </si>
-  <si>
-    <t>FRANCISCO ALAN</t>
-  </si>
-  <si>
-    <t>HIRAM FABIAN</t>
+    <t>ROBLES</t>
+  </si>
+  <si>
+    <t>RAUL</t>
   </si>
   <si>
     <t>URIEL</t>
   </si>
   <si>
-    <t>JESUS</t>
-  </si>
-  <si>
-    <t>YAHIR</t>
-  </si>
-  <si>
-    <t>BRUNO AZAEL</t>
-  </si>
-  <si>
-    <t>CESAR</t>
-  </si>
-  <si>
-    <t>MARIA ASUNCION</t>
-  </si>
-  <si>
-    <t>MARCO ANTONIO</t>
-  </si>
-  <si>
-    <t>ALDAIR ALAN</t>
-  </si>
-  <si>
-    <t>ALDER ALBERTO</t>
-  </si>
-  <si>
-    <t>ELI ANTONIO</t>
-  </si>
-  <si>
-    <t>ISAAC</t>
-  </si>
-  <si>
-    <t>CHRISTIAN YAIR</t>
+    <t>MISAEL</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>ROBERTO</t>
+  </si>
+  <si>
+    <t>NOEL ALBERTO</t>
+  </si>
+  <si>
+    <t>LUIS ALBERTO</t>
+  </si>
+  <si>
+    <t>ADRIAN</t>
   </si>
   <si>
     <t>SERGIO MARIANO</t>
   </si>
   <si>
+    <t>IVAN</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS</t>
+  </si>
+  <si>
     <t>CESAR OMAR</t>
-  </si>
-  <si>
-    <t>ROSA ISELA</t>
-  </si>
-  <si>
-    <t>BENY ALEXANDER</t>
-  </si>
-  <si>
-    <t>ABIUD</t>
-  </si>
-  <si>
-    <t>GUILLERMO</t>
-  </si>
-  <si>
-    <t>ALEXANDER</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>CITALAN</t>
-  </si>
-  <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
-  </si>
-  <si>
-    <t>GUEVARA</t>
-  </si>
-  <si>
-    <t>OLMOS</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>GARCÍA</t>
-  </si>
-  <si>
-    <t>ROMANOS</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>VELAZQUEZ</t>
-  </si>
-  <si>
-    <t>MARCELINO</t>
-  </si>
-  <si>
-    <t>ROBLES</t>
-  </si>
-  <si>
-    <t>RAUL</t>
-  </si>
-  <si>
-    <t>MISAEL</t>
-  </si>
-  <si>
-    <t>DAVID</t>
-  </si>
-  <si>
-    <t>ROBERTO</t>
-  </si>
-  <si>
-    <t>NOEL ALBERTO</t>
-  </si>
-  <si>
-    <t>LUIS ALBERTO</t>
-  </si>
-  <si>
-    <t>ADRIAN</t>
-  </si>
-  <si>
-    <t>IVAN</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1249,7 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>9</v>
@@ -1303,7 +1303,7 @@
         <v>7</v>
       </c>
       <c r="U8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="V8">
         <v>9</v>
@@ -1557,7 +1557,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>9</v>
@@ -1611,7 +1611,7 @@
         <v>10</v>
       </c>
       <c r="U12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V12">
         <v>9</v>
@@ -2712,7 +2712,7 @@
         <v>8</v>
       </c>
       <c r="C27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D27">
         <v>9</v>
@@ -2766,7 +2766,7 @@
         <v>8</v>
       </c>
       <c r="U27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V27">
         <v>9</v>
@@ -2866,7 +2866,7 @@
         <v>8</v>
       </c>
       <c r="C29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="D29">
         <v>9</v>
@@ -2920,7 +2920,7 @@
         <v>8</v>
       </c>
       <c r="U29">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="V29">
         <v>9</v>
@@ -3385,25 +3385,25 @@
         <v>32</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>40.63</v>
+        <v>53.13</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="I2">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J2">
-        <v>59.38</v>
+        <v>46.88</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3573,7 +3573,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3611,10 +3611,10 @@
         <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -3631,10 +3631,10 @@
         <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -3651,10 +3651,10 @@
         <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -3671,10 +3671,10 @@
         <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -3691,10 +3691,10 @@
         <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -3705,16 +3705,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>20330051920044</v>
+        <v>20330051920046</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -3725,16 +3725,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>20330051920046</v>
+        <v>20330051920050</v>
       </c>
       <c r="B8" t="s">
         <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -3748,19 +3748,19 @@
         <v>20330051920050</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3768,19 +3768,19 @@
         <v>20330051920050</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3788,59 +3788,59 @@
         <v>20330051920050</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>20330051920050</v>
+        <v>20330051920365</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>20330051920051</v>
+        <v>20330051920365</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3848,19 +3848,19 @@
         <v>20330051920365</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3868,59 +3868,59 @@
         <v>20330051920365</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>20330051920365</v>
+        <v>20330051920052</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>20330051920365</v>
+        <v>20330051920052</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3928,19 +3928,19 @@
         <v>20330051920052</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3948,73 +3948,73 @@
         <v>20330051920052</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>20330051920052</v>
+        <v>20330051920053</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>20330051920052</v>
+        <v>20330051920055</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>20330051920053</v>
+        <v>20330051920055</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
@@ -4028,19 +4028,19 @@
         <v>20330051920055</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4048,59 +4048,59 @@
         <v>20330051920055</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>20330051920055</v>
+        <v>20330051920097</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>20330051920055</v>
+        <v>20330051920097</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E26" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4108,19 +4108,19 @@
         <v>20330051920097</v>
       </c>
       <c r="B27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4128,59 +4128,53 @@
         <v>20330051920097</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>20330051920097</v>
+        <v>20330051920099</v>
       </c>
       <c r="B29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C29" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>20330051920097</v>
+        <v>20330051920099</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="E30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4188,50 +4182,56 @@
         <v>20330051920099</v>
       </c>
       <c r="B31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>20330051920099</v>
+        <v>20330051920366</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>20330051920099</v>
+        <v>20330051920366</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4239,19 +4239,19 @@
         <v>20330051920366</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4259,19 +4259,19 @@
         <v>20330051920366</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4279,59 +4279,59 @@
         <v>20330051920366</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>20330051920366</v>
+        <v>20330051920367</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E37" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>20330051920366</v>
+        <v>20330051920367</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D38" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4339,19 +4339,19 @@
         <v>20330051920367</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D39" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4359,19 +4359,19 @@
         <v>20330051920367</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D40" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4379,59 +4379,59 @@
         <v>20330051920367</v>
       </c>
       <c r="B41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C41" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D41" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>20330051920367</v>
+        <v>20330051920100</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>20330051920367</v>
+        <v>20330051920100</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4439,19 +4439,19 @@
         <v>20330051920100</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E44" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4459,93 +4459,93 @@
         <v>20330051920100</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>20330051920100</v>
+        <v>20330051920107</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>20330051920100</v>
+        <v>20330051920107</v>
       </c>
       <c r="B47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E47" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>20330051920101</v>
+        <v>20330051920107</v>
       </c>
       <c r="B48" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E48" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>20330051920105</v>
+        <v>20330051920109</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D49" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="E49" t="s">
         <v>6</v>
@@ -4556,181 +4556,101 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>20330051920107</v>
+        <v>20330051920109</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C50" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D50" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>20330051920107</v>
+        <v>20330051920109</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C51" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D51" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E51" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F51" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>20330051920107</v>
+        <v>20330051920111</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C52" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D52" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>20330051920109</v>
+        <v>20330051920112</v>
       </c>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D53" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F53" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>20330051920109</v>
+        <v>20330051920113</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C54" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D54" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E54" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55">
-        <v>20330051920109</v>
-      </c>
-      <c r="B55" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" t="s">
-        <v>88</v>
-      </c>
-      <c r="D55" t="s">
-        <v>118</v>
-      </c>
-      <c r="E55" t="s">
-        <v>9</v>
-      </c>
-      <c r="F55" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56">
-        <v>20330051920111</v>
-      </c>
-      <c r="B56" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" t="s">
-        <v>97</v>
-      </c>
-      <c r="D56" t="s">
-        <v>119</v>
-      </c>
-      <c r="E56" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57">
-        <v>20330051920112</v>
-      </c>
-      <c r="B57" t="s">
-        <v>82</v>
-      </c>
-      <c r="C57" t="s">
-        <v>98</v>
-      </c>
-      <c r="D57" t="s">
-        <v>120</v>
-      </c>
-      <c r="E57" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58">
-        <v>20330051920113</v>
-      </c>
-      <c r="B58" t="s">
-        <v>83</v>
-      </c>
-      <c r="C58" t="s">
-        <v>99</v>
-      </c>
-      <c r="D58" t="s">
-        <v>121</v>
-      </c>
-      <c r="E58" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" t="s">
         <v>54</v>
       </c>
     </row>
@@ -4773,13 +4693,13 @@
         <v>20330051920366</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -4790,13 +4710,13 @@
         <v>20330051920367</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -4807,13 +4727,13 @@
         <v>20330051920050</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -4824,13 +4744,13 @@
         <v>20330051920365</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -4841,13 +4761,13 @@
         <v>20330051920052</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E6">
         <v>4</v>
@@ -4858,13 +4778,13 @@
         <v>20330051920055</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E7">
         <v>4</v>
@@ -4875,13 +4795,13 @@
         <v>20330051920097</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E8">
         <v>4</v>
@@ -4892,13 +4812,13 @@
         <v>20330051920100</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E9">
         <v>4</v>
@@ -4909,10 +4829,10 @@
         <v>20330051920099</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -4923,13 +4843,13 @@
         <v>20330051920107</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -4940,13 +4860,13 @@
         <v>20330051920109</v>
       </c>
       <c r="B12" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -4960,10 +4880,10 @@
         <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -4977,10 +4897,10 @@
         <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -4994,10 +4914,10 @@
         <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D15" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -5005,16 +4925,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>20330051920044</v>
+        <v>20330051920046</v>
       </c>
       <c r="B16" t="s">
         <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -5022,16 +4942,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>20330051920046</v>
+        <v>20330051920053</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -5039,16 +4959,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>20330051920051</v>
+        <v>20330051920111</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
         <v>89</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -5056,16 +4976,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>20330051920053</v>
+        <v>20330051920112</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -5073,16 +4993,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>20330051920101</v>
+        <v>20330051920113</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -5090,84 +5010,84 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>20330051920105</v>
+        <v>20330051920043</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="C21" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>20330051920111</v>
+        <v>20330051920044</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="C22" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="D22" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>20330051920112</v>
+        <v>20330051920045</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>20330051920113</v>
+        <v>20330051920048</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>20330051920043</v>
+        <v>20330051920051</v>
       </c>
       <c r="B25" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D25" t="s">
-        <v>135</v>
+        <v>95</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -5175,13 +5095,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>20330051920045</v>
+        <v>20330051920056</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="C26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D26" t="s">
         <v>136</v>
@@ -5192,13 +5112,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>20330051920048</v>
+        <v>20330051920057</v>
       </c>
       <c r="B27" t="s">
-        <v>124</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="D27" t="s">
         <v>137</v>
@@ -5209,13 +5129,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>20330051920056</v>
+        <v>20330051920095</v>
       </c>
       <c r="B28" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C28" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D28" t="s">
         <v>138</v>
@@ -5226,13 +5146,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>20330051920057</v>
+        <v>20330051920096</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="C29" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D29" t="s">
         <v>139</v>
@@ -5243,13 +5163,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>20330051920095</v>
+        <v>20330051920101</v>
       </c>
       <c r="B30" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C30" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D30" t="s">
         <v>140</v>
@@ -5260,13 +5180,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31">
-        <v>20330051920096</v>
+        <v>20330051920102</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D31" t="s">
         <v>141</v>
@@ -5277,13 +5197,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32">
-        <v>20330051920102</v>
+        <v>20330051920104</v>
       </c>
       <c r="B32" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C32" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="D32" t="s">
         <v>142</v>
@@ -5294,13 +5214,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33">
-        <v>20330051920104</v>
+        <v>20330051920105</v>
       </c>
       <c r="B33" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="D33" t="s">
         <v>143</v>
@@ -5316,7 +5236,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5357,10 +5277,10 @@
         <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -5380,10 +5300,10 @@
         <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -5403,10 +5323,10 @@
         <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -5426,10 +5346,10 @@
         <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -5443,16 +5363,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>20330051920044</v>
+        <v>20330051920046</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -5466,22 +5386,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>20330051920046</v>
+        <v>20330051920053</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -5489,16 +5409,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>20330051920051</v>
+        <v>20330051920111</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
         <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -5512,22 +5432,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>20330051920053</v>
+        <v>20330051920112</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -5535,116 +5455,24 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>20330051920101</v>
+        <v>20330051920113</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G10">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>20330051920105</v>
-      </c>
-      <c r="B11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>20330051920111</v>
-      </c>
-      <c r="B12" t="s">
-        <v>81</v>
-      </c>
-      <c r="C12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>20330051920112</v>
-      </c>
-      <c r="B13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>20330051920113</v>
-      </c>
-      <c r="B14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" t="s">
-        <v>121</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14">
         <v>-1</v>
       </c>
     </row>
